--- a/files/reference_for_updating.xlsx
+++ b/files/reference_for_updating.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="mroSheet" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -401,7 +401,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
